--- a/src/data/Heather-And-Sarah-Seating-Chart.xlsx
+++ b/src/data/Heather-And-Sarah-Seating-Chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Jackie Hamilton</t>
   </si>
   <si>
-    <t>Andrea vincent</t>
+    <t>Andrea Vincent</t>
   </si>
   <si>
     <t>Michael Vincent</t>
@@ -139,9 +139,6 @@
     <t>Matt Doliner</t>
   </si>
   <si>
-    <t>Carmen Doliner</t>
-  </si>
-  <si>
     <t>Barrie Carr</t>
   </si>
   <si>
@@ -259,7 +256,7 @@
     <t>Tabi Teeples</t>
   </si>
   <si>
-    <t>Sheila Jackson</t>
+    <t>Morgan Cain</t>
   </si>
   <si>
     <t>Germán Mundarain</t>
@@ -296,12 +293,6 @@
   </si>
   <si>
     <t>Jennifer Safstrom</t>
-  </si>
-  <si>
-    <t>Abby Ritter</t>
-  </si>
-  <si>
-    <t>Nick Ritter</t>
   </si>
   <si>
     <t>Cami Minehart</t>
@@ -505,6 +496,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -512,9 +506,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -775,7 +766,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
@@ -783,7 +774,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
@@ -791,7 +782,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
@@ -799,7 +790,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
@@ -807,7 +798,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
@@ -815,7 +806,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -823,7 +814,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
@@ -831,7 +822,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -839,7 +830,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
@@ -847,7 +838,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
@@ -855,7 +846,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
@@ -863,7 +854,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
@@ -871,7 +862,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
@@ -879,7 +870,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2">
@@ -887,7 +878,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2">
@@ -895,7 +886,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2">
@@ -903,7 +894,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2">
@@ -911,7 +902,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2">
@@ -919,7 +910,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2">
@@ -927,7 +918,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2">
@@ -935,7 +926,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2">
@@ -943,7 +934,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2">
@@ -951,7 +942,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2">
@@ -959,7 +950,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2">
@@ -967,7 +958,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2">
@@ -975,7 +966,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2">
@@ -983,7 +974,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2">
@@ -999,7 +990,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2">
@@ -1007,7 +998,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2">
@@ -1015,7 +1006,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="2">
@@ -1023,7 +1014,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2">
@@ -1031,7 +1022,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2">
@@ -1039,7 +1030,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2">
@@ -1047,7 +1038,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="2">
@@ -1055,7 +1046,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2">
@@ -1063,7 +1054,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="2">
@@ -1071,7 +1062,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="2">
@@ -1079,7 +1070,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2">
@@ -1087,15 +1078,15 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="2">
@@ -1103,7 +1094,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="2">
@@ -1111,7 +1102,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="2">
@@ -1119,7 +1110,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="2">
@@ -1127,7 +1118,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="2">
@@ -1135,7 +1126,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="2">
@@ -1143,7 +1134,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="2">
@@ -1159,7 +1150,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="2">
@@ -1167,15 +1158,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="2">
@@ -1183,7 +1174,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="2">
@@ -1191,7 +1182,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="2">
@@ -1199,7 +1190,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="2">
@@ -1207,7 +1198,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="2">
@@ -1215,7 +1206,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="2">
@@ -1223,7 +1214,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="2">
@@ -1231,7 +1222,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="2">
@@ -1239,15 +1230,15 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="2">
@@ -1255,7 +1246,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="2">
@@ -1263,7 +1254,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="2">
@@ -1279,7 +1270,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="2">
@@ -1287,7 +1278,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="2">
@@ -1295,7 +1286,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="2">
@@ -1311,7 +1302,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="2">
@@ -1319,7 +1310,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="2">
@@ -1327,11 +1318,11 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="75">
@@ -1343,7 +1334,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="2">
@@ -1351,7 +1342,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="2">
@@ -1367,7 +1358,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="2">
@@ -1383,7 +1374,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="2">
@@ -1399,7 +1390,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="2">
@@ -1407,7 +1398,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="2">
@@ -1423,15 +1414,15 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="2">
@@ -1439,7 +1430,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="2">
@@ -1447,7 +1438,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="2">
@@ -1463,7 +1454,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="2">
@@ -1471,7 +1462,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="2">
@@ -1479,7 +1470,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="2">
@@ -1487,31 +1478,31 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="2">
@@ -1519,7 +1510,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="2">
@@ -1527,7 +1518,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="2">
@@ -1535,7 +1526,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="2">
@@ -1543,7 +1534,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="2">
@@ -1559,7 +1550,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="2">
@@ -1567,31 +1558,31 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="2">
@@ -1599,7 +1590,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="2">
@@ -1607,7 +1598,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="2">
@@ -1615,7 +1606,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="2">
@@ -1623,7 +1614,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="2">
@@ -1631,7 +1622,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B112" s="2">
@@ -1639,11 +1630,11 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="114">
@@ -1651,19 +1642,19 @@
         <v>114</v>
       </c>
       <c r="B114" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="2">
@@ -1671,7 +1662,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="2">
@@ -1687,7 +1678,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="2">
@@ -1695,7 +1686,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="2">
@@ -1703,7 +1694,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="2">
@@ -1711,7 +1702,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="2">
@@ -1727,34 +1718,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" s="2">
         <v>12.0</v>
       </c>
     </row>
